--- a/MANUAL.xlsx
+++ b/MANUAL.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2614E0-34CC-4998-A4CA-20C2302897AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAE11A-CB59-4E60-998A-4A16E0F2E1C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B69EB7D4-9F61-49CE-871B-E16E044A4E01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CERDO" sheetId="1" r:id="rId1"/>
+    <sheet name="BORREGO" sheetId="2" r:id="rId2"/>
+    <sheet name="HUEVO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,9 +26,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">DESCRIPCION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUE MEDIMIOS </t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Rendimiento Granjas</t>
+  </si>
+  <si>
+    <t>GV1 GV4 GV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos por lote </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lote de cerdos </t>
+  </si>
+  <si>
+    <t>Comportamiento de costo- beneficio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidad </t>
+  </si>
+  <si>
+    <t>Cuanto sale el desarrollo de cada capa</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de desarrollo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio de peso </t>
+  </si>
+  <si>
+    <t>Kilos-Cabezas Totales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo de producciòn </t>
+  </si>
+  <si>
+    <t>Proyeccion anual</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34,16 +98,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -51,12 +129,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +575,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB27B0-CC85-472B-8AA8-E6149E43EAEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA5FE1E-0038-4B35-B520-239E7134EEB1}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.09765625" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21.296875" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B53C9-5255-4065-B700-2B13B74E8CFD}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MANUAL.xlsx
+++ b/MANUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAE11A-CB59-4E60-998A-4A16E0F2E1C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF77C3DD-ACEC-4B50-83A6-3F0C4D1B6113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B69EB7D4-9F61-49CE-871B-E16E044A4E01}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t xml:space="preserve">DESCRIPCION </t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">Pasar  </t>
   </si>
   <si>
-    <t xml:space="preserve">Tiempo de desarrollo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Promedio de peso </t>
   </si>
   <si>
@@ -84,6 +81,141 @@
   </si>
   <si>
     <t>Proyeccion anual</t>
+  </si>
+  <si>
+    <t>Desarrollo por granja</t>
+  </si>
+  <si>
+    <t>Promedio general</t>
+  </si>
+  <si>
+    <t>Gatos generales por granja</t>
+  </si>
+  <si>
+    <t>Total de nacidos</t>
+  </si>
+  <si>
+    <t>Cerdos por granja</t>
+  </si>
+  <si>
+    <t>Con el porcentaje de vivos, una proyeccion anual.</t>
+  </si>
+  <si>
+    <t>Variaciòn de precios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilos vendidos </t>
+  </si>
+  <si>
+    <t>Utilidad</t>
+  </si>
+  <si>
+    <t>cuanto ganamos</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Lo que gastamos</t>
+  </si>
+  <si>
+    <t>Kilos producidos</t>
+  </si>
+  <si>
+    <t>Promedio de peso</t>
+  </si>
+  <si>
+    <t>Peso general</t>
+  </si>
+  <si>
+    <t>Cuanto pesan y general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventas </t>
+  </si>
+  <si>
+    <t>Totales anuales/mensuales</t>
+  </si>
+  <si>
+    <t>Rotacion</t>
+  </si>
+  <si>
+    <t>Tiempo de venta.</t>
+  </si>
+  <si>
+    <t>Total de ventas</t>
+  </si>
+  <si>
+    <t>Promedio de kg</t>
+  </si>
+  <si>
+    <t>Produccion en kg</t>
+  </si>
+  <si>
+    <t>Por ejercicio/mensual</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventas totales </t>
+  </si>
+  <si>
+    <t>Reflejo economico de las ventas</t>
+  </si>
+  <si>
+    <t>Variacion de precios</t>
+  </si>
+  <si>
+    <t>Vida Polla</t>
+  </si>
+  <si>
+    <t>Vida util de la polla y kg promedio</t>
+  </si>
+  <si>
+    <t>Producciones</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Ciclo de compra</t>
+  </si>
+  <si>
+    <t>Ventas promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclo de compra </t>
+  </si>
+  <si>
+    <t>Nacimientos</t>
+  </si>
+  <si>
+    <t>Medicamento</t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>Muertes</t>
+  </si>
+  <si>
+    <t>Recoleccion</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de desarrollo -engorda </t>
   </si>
 </sst>
 </file>
@@ -121,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,28 +356,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,11 +389,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,213 +727,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB27B0-CC85-472B-8AA8-E6149E43EAEB}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.8984375" customWidth="1"/>
     <col min="3" max="3" width="24.796875" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -797,7 +1009,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -810,320 +1022,489 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B53C9-5255-4065-B700-2B13B74E8CFD}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.59765625" customWidth="1"/>
     <col min="5" max="5" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MANUAL.xlsx
+++ b/MANUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF77C3DD-ACEC-4B50-83A6-3F0C4D1B6113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D5676-47B9-40E5-B17D-084C43C21390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B69EB7D4-9F61-49CE-871B-E16E044A4E01}"/>
   </bookViews>
@@ -390,6 +390,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,20 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB27B0-CC85-472B-8AA8-E6149E43EAEB}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -744,11 +744,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -963,7 +963,7 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="1"/>
@@ -975,7 +975,7 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="1"/>
@@ -987,7 +987,7 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1022,14 +1022,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1257,26 +1257,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="1"/>
@@ -1474,7 +1474,7 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="1"/>
@@ -1486,7 +1486,7 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1"/>
